--- a/第二反復/振り返り/30_開発体験シート.xlsx
+++ b/第二反復/振り返り/30_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF0EA30-3234-424F-B7AD-0960F392E44B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297CF4EA-7604-4B6D-AFDF-17ADB58FFF5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,10 +1732,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="G31" sqref="G31"/>
+      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1983,7 +1983,7 @@
         <v>56</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G18" s="38"/>
       <c r="H18" s="51" t="str">
@@ -2002,7 +2002,7 @@
         <v>56</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="39" t="str">
@@ -2025,7 +2025,7 @@
         <v>56</v>
       </c>
       <c r="F20" s="42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="51" t="str">
@@ -2044,7 +2044,7 @@
         <v>56</v>
       </c>
       <c r="F21" s="39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G21" s="39"/>
       <c r="H21" s="39" t="str">
@@ -2065,7 +2065,7 @@
         <v>56</v>
       </c>
       <c r="F22" s="39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G22" s="39"/>
       <c r="H22" s="53" t="str">
@@ -2084,7 +2084,7 @@
         <v>56</v>
       </c>
       <c r="F23" s="39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G23" s="39"/>
       <c r="H23" s="39" t="str">
@@ -2105,7 +2105,7 @@
         <v>56</v>
       </c>
       <c r="F24" s="39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G24" s="39"/>
       <c r="H24" s="39" t="str">
@@ -2124,7 +2124,7 @@
         <v>56</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G25" s="40"/>
       <c r="H25" s="42" t="str">
@@ -2267,12 +2267,12 @@
         <v>56</v>
       </c>
       <c r="F32" s="39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G32" s="39"/>
       <c r="H32" s="39" t="str">
         <f>IF(COUNTIF(E32:G32,"*●*"),"●",IF(COUNTIF(E32:G32,"*○*"),"○","－"))</f>
-        <v>○</v>
+        <v>●</v>
       </c>
       <c r="I32" s="9"/>
     </row>
@@ -2305,12 +2305,12 @@
         <v>57</v>
       </c>
       <c r="F34" s="39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G34" s="39"/>
       <c r="H34" s="53" t="str">
         <f t="shared" si="0"/>
-        <v>○</v>
+        <v>－</v>
       </c>
       <c r="I34" s="9"/>
     </row>
@@ -2569,18 +2569,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2602,6 +2602,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2615,12 +2623,4 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/第二反復/振り返り/30_開発体験シート.xlsx
+++ b/第二反復/振り返り/30_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{297CF4EA-7604-4B6D-AFDF-17ADB58FFF5F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62269485-5962-427D-98F8-46654027F2BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1732,10 +1732,10 @@
   <dimension ref="B7:I37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="8" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="8" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2345,12 +2345,12 @@
         <v>57</v>
       </c>
       <c r="F36" s="39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G36" s="39"/>
       <c r="H36" s="39" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>○</v>
       </c>
       <c r="I36" s="9"/>
     </row>
@@ -2364,12 +2364,12 @@
         <v>57</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G37" s="40"/>
       <c r="H37" s="42" t="str">
         <f t="shared" si="0"/>
-        <v>－</v>
+        <v>○</v>
       </c>
       <c r="I37" s="13"/>
     </row>
@@ -2569,18 +2569,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2602,14 +2602,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -2623,4 +2615,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/第二反復/振り返り/30_開発体験シート.xlsx
+++ b/第二反復/振り返り/30_開発体験シート.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62269485-5962-427D-98F8-46654027F2BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB3DECBF-0E28-4A00-8150-97C63F2EA52D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="60">
   <si>
     <t>体験項目</t>
     <rPh sb="0" eb="2">
@@ -539,6 +539,22 @@
   </si>
   <si>
     <t>●</t>
+  </si>
+  <si>
+    <t>メトリクスによって定量的に品質を評価できた。</t>
+    <rPh sb="9" eb="11">
+      <t>テイリョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒンシツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1735,7 +1751,7 @@
       <pane xSplit="4" ySplit="8" topLeftCell="E30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="H39" sqref="H39"/>
+      <selection pane="bottomRight" activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2352,7 +2368,9 @@
         <f t="shared" si="0"/>
         <v>○</v>
       </c>
-      <c r="I36" s="9"/>
+      <c r="I36" s="9" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="37" spans="2:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B37" s="56"/>
@@ -2399,6 +2417,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2568,12 +2592,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2584,6 +2602,22 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86AE9809-2BDF-4F5B-96B6-1BE2B508A423}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2601,22 +2635,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA5D90CB-8785-4D10-85F0-C13DE8708485}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD2009DC-232F-41E4-A89F-F16D827830F9}">
   <ds:schemaRefs>
